--- a/C#/Text Of Exercise/key_words.xlsx
+++ b/C#/Text Of Exercise/key_words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win 10\Desktop\draft\Text Of Exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win 10\Desktop\my-project\C#\Text Of Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0176FFB-A79A-43CB-8415-178A54740A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853451E-A0BF-42E0-B059-8BE6CB3AD000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{6C25E273-8DFD-4665-8E90-525D4E0C0469}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>הוכח</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>@"\bמשולש ישר זווית\b"</t>
+  </si>
+  <si>
+    <t>@"\bקטע\b"</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F56D74-DB8A-4B67-B326-D830D8FEF0C6}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,7 +511,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -516,7 +519,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -524,41 +527,46 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/C#/Text Of Exercise/key_words.xlsx
+++ b/C#/Text Of Exercise/key_words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win 10\Desktop\my-project\C#\Text Of Exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win 10\Desktop\draft\Text Of Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853451E-A0BF-42E0-B059-8BE6CB3AD000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81B6053-6B5B-455D-B17E-77DC2AB1BC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{6C25E273-8DFD-4665-8E90-525D4E0C0469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C25E273-8DFD-4665-8E90-525D4E0C0469}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>הוכח</t>
   </si>
@@ -45,58 +45,55 @@
     <t>דומים</t>
   </si>
   <si>
-    <t>@"\bמשולש\b"</t>
-  </si>
-  <si>
-    <t>@"\b&lt;\b"</t>
-  </si>
-  <si>
-    <t>@"\bישר\b"</t>
-  </si>
-  <si>
-    <t>@"\bזווית\b"</t>
-  </si>
-  <si>
-    <t>@"\bאמצע צלע\b"</t>
-  </si>
-  <si>
-    <t>@"\bתיכון\b"</t>
-  </si>
-  <si>
-    <t>@"\bגובה\b"</t>
-  </si>
-  <si>
-    <t>@"\bחוצה זווית\b"</t>
-  </si>
-  <si>
-    <t>@"\bחוצה את הזווית\b"</t>
-  </si>
-  <si>
-    <t>@"\bצלע\b"</t>
-  </si>
-  <si>
-    <t>@"\bניצב\b"</t>
-  </si>
-  <si>
-    <t>@"\bיתר\b"</t>
-  </si>
-  <si>
-    <t>@"\b=\b"</t>
-  </si>
-  <si>
-    <t>@"\bשווה\b"</t>
-  </si>
-  <si>
-    <t>@"\bמשולש שווה צלעות\b"</t>
-  </si>
-  <si>
-    <t>@"\bמשולש שווה שוקיים\b"</t>
-  </si>
-  <si>
-    <t>@"\bמשולש ישר זווית\b"</t>
-  </si>
-  <si>
-    <t>@"\bקטע\b"</t>
+    <t>משולש ישר זווית</t>
+  </si>
+  <si>
+    <t>משולש שווה שוקיים</t>
+  </si>
+  <si>
+    <t>משולש שווה צלעות</t>
+  </si>
+  <si>
+    <t>משולש</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>זווית</t>
+  </si>
+  <si>
+    <t>ישר</t>
+  </si>
+  <si>
+    <t>קטע</t>
+  </si>
+  <si>
+    <t>אמצע צלע</t>
+  </si>
+  <si>
+    <t>תיכון</t>
+  </si>
+  <si>
+    <t>גובה</t>
+  </si>
+  <si>
+    <t>חוצה זווית</t>
+  </si>
+  <si>
+    <t>חוצה את הזווית</t>
+  </si>
+  <si>
+    <t>צלע</t>
+  </si>
+  <si>
+    <t>ניצב</t>
+  </si>
+  <si>
+    <t>יתר</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -452,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F56D74-DB8A-4B67-B326-D830D8FEF0C6}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="139" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,22 +461,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -487,7 +484,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -495,7 +492,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -503,7 +500,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -511,7 +508,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -519,7 +516,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -527,47 +524,47 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/C#/Text Of Exercise/key_words.xlsx
+++ b/C#/Text Of Exercise/key_words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win 10\Desktop\draft\Text Of Exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win 10\Desktop\my-project\C#\Text Of Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81B6053-6B5B-455D-B17E-77DC2AB1BC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07954063-9DB3-4E75-BA29-DA52B595B643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C25E273-8DFD-4665-8E90-525D4E0C0469}"/>
   </bookViews>
@@ -25,26 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>הוכח</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>שווה</t>
   </si>
   <si>
-    <t>גדול</t>
-  </si>
-  <si>
-    <t>קטן</t>
-  </si>
-  <si>
     <t>חופפים</t>
   </si>
   <si>
-    <t>דומים</t>
-  </si>
-  <si>
     <t>משולש ישר זווית</t>
   </si>
   <si>
@@ -94,6 +82,15 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>היקף</t>
+  </si>
+  <si>
+    <t>שטח</t>
+  </si>
+  <si>
+    <t>חופף</t>
   </si>
 </sst>
 </file>
@@ -447,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F56D74-DB8A-4B67-B326-D830D8FEF0C6}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,111 +456,113 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
